--- a/data/trans_orig/P6903-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8EEC21D-8263-4A71-A974-B1B8332B7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A57CF7-4AF8-4ED6-BE19-69AA17ECF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{714A3081-0C00-496C-9A82-F3594DA977F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA9237C-A17B-4829-9CDC-7DD6AB04C6CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,229 +77,229 @@
     <t>34,44%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>24,15%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>29,56%</t>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
   </si>
   <si>
     <t>53,13%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>81,55%</t>
   </si>
   <si>
     <t>74,7%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
@@ -530,424 +530,412 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>39,56%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>46,23%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>60,44%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD1F14C-5378-4903-BBD7-4DD7D43A96A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0960212-2415-42CA-ADD9-1DBDD18F75D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D68D8E0-EE05-41D8-96AB-F78D36A10F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F705E-642E-453F-A0C3-A467321205CA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551C30A7-0CB0-4087-A20C-9327D2079092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73D3E95-E265-4F60-B7A1-D42197F98F89}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3021,7 +3009,7 @@
         <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3024,13 @@
         <v>25694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3051,13 +3039,13 @@
         <v>10069</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3066,13 +3054,13 @@
         <v>35763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3128,13 @@
         <v>85449</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -3155,13 +3143,13 @@
         <v>52858</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3170,13 +3158,13 @@
         <v>138307</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3179,13 @@
         <v>143933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -3206,13 +3194,13 @@
         <v>71707</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -3221,13 +3209,13 @@
         <v>215640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3283,13 @@
         <v>19104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3310,13 +3298,13 @@
         <v>29032</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3325,13 +3313,13 @@
         <v>48136</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3334,13 @@
         <v>44424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3361,13 +3349,13 @@
         <v>44676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3376,13 +3364,13 @@
         <v>89100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3453,13 @@
         <v>89846</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -3480,13 +3468,13 @@
         <v>224285</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3489,13 @@
         <v>214052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -3516,13 +3504,13 @@
         <v>126452</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -3531,13 +3519,13 @@
         <v>340503</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42B5227-97BE-4D05-A5AC-AF4D3471241C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C5F00-BFC5-432C-80D9-2E8F87AE935B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3724,13 @@
         <v>13755</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3751,13 +3739,13 @@
         <v>16159</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3766,13 +3754,13 @@
         <v>29915</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3775,13 @@
         <v>16725</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3802,13 +3790,13 @@
         <v>12835</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3817,13 +3805,13 @@
         <v>29559</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3879,13 @@
         <v>83197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3906,13 +3894,13 @@
         <v>93721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -3921,13 +3909,13 @@
         <v>176918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3930,13 @@
         <v>163328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>184</v>
@@ -3957,13 +3945,13 @@
         <v>140240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -3972,13 +3960,13 @@
         <v>303569</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4034,13 @@
         <v>26411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4061,13 +4049,13 @@
         <v>43906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4076,13 +4064,13 @@
         <v>70317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4085,13 @@
         <v>45406</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4112,13 +4100,13 @@
         <v>53461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4127,13 +4115,13 @@
         <v>98867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4189,13 @@
         <v>123363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -4216,13 +4204,13 @@
         <v>153787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -4231,13 +4219,13 @@
         <v>277150</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4240,13 @@
         <v>225459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -4267,13 +4255,13 @@
         <v>206536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -4282,13 +4270,13 @@
         <v>431994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49A57CF7-4AF8-4ED6-BE19-69AA17ECF2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1483B2F3-B249-44AF-8AF2-01CF3F5FDF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA9237C-A17B-4829-9CDC-7DD6AB04C6CA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11568B56-343F-452F-B4D0-557657B1483C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,745 +77,763 @@
     <t>34,44%</t>
   </si>
   <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>72,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
   </si>
   <si>
     <t>59,94%</t>
@@ -1347,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0960212-2415-42CA-ADD9-1DBDD18F75D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83862801-7BD1-48C9-933F-D0EC11C6ACFE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2098,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3F705E-642E-453F-A0C3-A467321205CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F69AFA-5BCA-44C2-B42A-60F5EEAA2892}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2849,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C73D3E95-E265-4F60-B7A1-D42197F98F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA650C4-4727-4C2D-896B-0D550FC8E87A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3316,10 +3334,10 @@
         <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>44424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3349,13 +3367,13 @@
         <v>44676</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3364,13 +3382,13 @@
         <v>89100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3456,13 @@
         <v>134439</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3453,13 +3471,13 @@
         <v>89846</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -3468,13 +3486,13 @@
         <v>224285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>214052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -3504,13 +3522,13 @@
         <v>126452</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -3519,13 +3537,13 @@
         <v>340503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1C5F00-BFC5-432C-80D9-2E8F87AE935B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4A7345-640E-41BC-A790-21734F6CB604}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3742,13 @@
         <v>13755</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3739,13 +3757,13 @@
         <v>16159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3754,13 +3772,13 @@
         <v>29915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3793,13 @@
         <v>16725</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3790,13 +3808,13 @@
         <v>12835</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3805,13 +3823,13 @@
         <v>29559</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>83197</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3894,13 +3912,13 @@
         <v>93721</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -3909,13 +3927,13 @@
         <v>176918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>163328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>184</v>
@@ -3945,13 +3963,13 @@
         <v>140240</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -3960,13 +3978,13 @@
         <v>303569</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4052,13 @@
         <v>26411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4049,13 +4067,13 @@
         <v>43906</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4064,13 +4082,13 @@
         <v>70317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4103,13 @@
         <v>45406</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4100,13 +4118,13 @@
         <v>53461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4115,13 +4133,13 @@
         <v>98867</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4207,13 @@
         <v>123363</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -4204,13 +4222,13 @@
         <v>153787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -4222,10 +4240,10 @@
         <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4258,13 @@
         <v>225459</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -4255,13 +4273,13 @@
         <v>206536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -4273,10 +4291,10 @@
         <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1483B2F3-B249-44AF-8AF2-01CF3F5FDF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C3E92D-74A7-41CE-80D7-65E4C8B75A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11568B56-343F-452F-B4D0-557657B1483C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7AFC79-8BEF-4F34-9D97-B58CBEF256D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>25,72%</t>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>77,64%</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>31,0%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>32,38%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>67,62%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>29,61%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>26,86%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>70,39%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>68,41%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,217 +311,217 @@
     <t>24,15%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>29,74%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>37,8%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>75,47%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>62,2%</t>
   </si>
   <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
   </si>
   <si>
     <t>25,3%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>70,0%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>74,7%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>23,9%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
@@ -530,217 +530,211 @@
     <t>53,77%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
   </si>
   <si>
     <t>51,41%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>39,56%</t>
   </si>
   <si>
     <t>46,23%</t>
   </si>
   <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
   </si>
   <si>
     <t>55,86%</t>
   </si>
   <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>60,44%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
   </si>
   <si>
     <t>42,43%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>57,57%</t>
   </si>
   <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
   </si>
   <si>
     <t>30,07%</t>
   </si>
   <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
   </si>
   <si>
     <t>39,39%</t>
   </si>
   <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>35,08%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>60,61%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>64,92%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>38,58%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>41,54%</t>
   </si>
   <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
   </si>
   <si>
     <t>58,46%</t>
   </si>
   <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
   </si>
   <si>
     <t>60,29%</t>
   </si>
   <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
@@ -749,211 +743,211 @@
     <t>45,13%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>55,73%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>44,27%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>40,06%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
   </si>
   <si>
     <t>36,82%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>59,94%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
   </si>
   <si>
     <t>63,18%</t>
   </si>
   <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>45,09%</t>
   </si>
   <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
   </si>
   <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>42,68%</t>
   </si>
   <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
   </si>
   <si>
     <t>64,63%</t>
   </si>
   <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>57,32%</t>
   </si>
   <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83862801-7BD1-48C9-933F-D0EC11C6ACFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1172D5-07C9-48E5-9B1A-1DC26F930716}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F69AFA-5BCA-44C2-B42A-60F5EEAA2892}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263613DA-0B59-4E06-8CFB-E59AFC88CA57}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA650C4-4727-4C2D-896B-0D550FC8E87A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5DDDDF-461F-42EC-B30E-2A0968FFDB5F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,7 +3021,7 @@
         <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3036,13 @@
         <v>25694</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3057,13 +3051,13 @@
         <v>10069</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -3072,13 +3066,13 @@
         <v>35763</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3140,13 @@
         <v>85449</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -3161,13 +3155,13 @@
         <v>52858</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3176,13 +3170,13 @@
         <v>138307</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3191,13 @@
         <v>143933</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>70</v>
@@ -3212,13 +3206,13 @@
         <v>71707</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>206</v>
@@ -3227,13 +3221,13 @@
         <v>215640</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3295,13 @@
         <v>19104</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -3316,13 +3310,13 @@
         <v>29032</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3331,13 +3325,13 @@
         <v>48136</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3346,13 @@
         <v>44424</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -3367,13 +3361,13 @@
         <v>44676</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>81</v>
@@ -3382,13 +3376,13 @@
         <v>89100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>134439</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>86</v>
@@ -3471,13 +3465,13 @@
         <v>89846</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -3486,13 +3480,13 @@
         <v>224285</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>214052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -3522,13 +3516,13 @@
         <v>126452</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -3537,13 +3531,13 @@
         <v>340503</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4A7345-640E-41BC-A790-21734F6CB604}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E28C8-29DC-494B-B8AF-8D6C3E4A9375}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3736,13 @@
         <v>13755</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3757,13 +3751,13 @@
         <v>16159</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -3772,13 +3766,13 @@
         <v>29915</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3787,13 @@
         <v>16725</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -3808,13 +3802,13 @@
         <v>12835</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3823,13 +3817,13 @@
         <v>29559</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3891,13 @@
         <v>83197</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>123</v>
@@ -3912,13 +3906,13 @@
         <v>93721</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>195</v>
@@ -3927,13 +3921,13 @@
         <v>176918</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3942,13 @@
         <v>163328</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>184</v>
@@ -3963,13 +3957,13 @@
         <v>140240</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>348</v>
@@ -3978,13 +3972,13 @@
         <v>303569</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4046,13 @@
         <v>26411</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -4067,13 +4061,13 @@
         <v>43906</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4082,13 +4076,13 @@
         <v>70317</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4097,13 @@
         <v>45406</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -4118,13 +4112,13 @@
         <v>53461</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>113</v>
@@ -4133,13 +4127,13 @@
         <v>98867</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4201,13 @@
         <v>123363</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>197</v>
@@ -4222,13 +4216,13 @@
         <v>153787</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -4237,13 +4231,13 @@
         <v>277150</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4252,13 @@
         <v>225459</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -4273,13 +4267,13 @@
         <v>206536</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -4288,13 +4282,13 @@
         <v>431994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1C3E92D-74A7-41CE-80D7-65E4C8B75A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC9EDDB-76E1-4134-B498-AB68C8BFCE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC7AFC79-8BEF-4F34-9D97-B58CBEF256D0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AFDF7931-17DC-4AE7-8E02-BB796FBB2078}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -740,214 +740,220 @@
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1172D5-07C9-48E5-9B1A-1DC26F930716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4699A5-71CB-47FE-931C-41E4DF44BC18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263613DA-0B59-4E06-8CFB-E59AFC88CA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F6B526-4A45-45B5-A439-E1EB5D425F20}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5DDDDF-461F-42EC-B30E-2A0968FFDB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6571C943-1A3F-45D0-B6DC-3F9657C89E32}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E28C8-29DC-494B-B8AF-8D6C3E4A9375}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BAF92-FEC3-4777-A618-1AED0901F1ED}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3739,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>13755</v>
+        <v>12446</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3748,7 +3754,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>16159</v>
+        <v>13437</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3763,7 +3769,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="7">
-        <v>29915</v>
+        <v>25883</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3784,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>16725</v>
+        <v>16768</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3799,7 +3805,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>12835</v>
+        <v>11549</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3814,7 +3820,7 @@
         <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>29559</v>
+        <v>28317</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3835,7 +3841,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7">
-        <v>30480</v>
+        <v>29214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="7">
-        <v>28994</v>
+        <v>24986</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3871,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>59474</v>
+        <v>54200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3894,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>83197</v>
+        <v>77377</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3903,7 +3909,7 @@
         <v>123</v>
       </c>
       <c r="I7" s="7">
-        <v>93721</v>
+        <v>84114</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3918,7 +3924,7 @@
         <v>195</v>
       </c>
       <c r="N7" s="7">
-        <v>176918</v>
+        <v>161491</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3939,7 +3945,7 @@
         <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>163328</v>
+        <v>159553</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3954,7 +3960,7 @@
         <v>184</v>
       </c>
       <c r="I8" s="7">
-        <v>140240</v>
+        <v>154254</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3969,7 +3975,7 @@
         <v>348</v>
       </c>
       <c r="N8" s="7">
-        <v>303569</v>
+        <v>313808</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3990,7 +3996,7 @@
         <v>236</v>
       </c>
       <c r="D9" s="7">
-        <v>246525</v>
+        <v>236930</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4011,7 @@
         <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>233961</v>
+        <v>238368</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4026,7 @@
         <v>543</v>
       </c>
       <c r="N9" s="7">
-        <v>480487</v>
+        <v>475299</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,7 +4049,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>26411</v>
+        <v>25362</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4058,7 +4064,7 @@
         <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>43906</v>
+        <v>40663</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4073,7 +4079,7 @@
         <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>70317</v>
+        <v>66025</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4094,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>45406</v>
+        <v>44164</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4109,7 +4115,7 @@
         <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>53461</v>
+        <v>49350</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4124,7 +4130,7 @@
         <v>113</v>
       </c>
       <c r="N11" s="7">
-        <v>98867</v>
+        <v>93515</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4145,7 +4151,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>71817</v>
+        <v>69526</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4166,7 @@
         <v>130</v>
       </c>
       <c r="I12" s="7">
-        <v>97367</v>
+        <v>90013</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4181,7 @@
         <v>193</v>
       </c>
       <c r="N12" s="7">
-        <v>169184</v>
+        <v>159540</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,7 +4204,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>123363</v>
+        <v>115185</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
@@ -4213,7 +4219,7 @@
         <v>197</v>
       </c>
       <c r="I13" s="7">
-        <v>153787</v>
+        <v>138213</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>290</v>
@@ -4228,16 +4234,16 @@
         <v>305</v>
       </c>
       <c r="N13" s="7">
-        <v>277150</v>
+        <v>253399</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,46 +4255,46 @@
         <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>225459</v>
+        <v>220486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
       </c>
       <c r="I14" s="7">
-        <v>206536</v>
+        <v>215154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
       </c>
       <c r="N14" s="7">
-        <v>431994</v>
+        <v>435639</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4306,7 @@
         <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>348822</v>
+        <v>335671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4321,7 @@
         <v>472</v>
       </c>
       <c r="I15" s="7">
-        <v>360323</v>
+        <v>353367</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4336,7 @@
         <v>806</v>
       </c>
       <c r="N15" s="7">
-        <v>709144</v>
+        <v>689038</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
